--- a/tests/test_protocol_sudden_dip.xlsx
+++ b/tests/test_protocol_sudden_dip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://snipr-my.sharepoint.com/personal/jsb_sniprbiome_com/Documents/ph-meter-interface/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{7B80D572-507A-9344-9DEF-47260041D9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F1F0558-B179-284E-8292-A6FF993ABA27}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{7B80D572-507A-9344-9DEF-47260041D9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A4798F6-2730-3048-8ED1-43C2F917DB52}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Pump</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>F.0.1.22_1</t>
-  </si>
-  <si>
-    <t>Dose multiplier interval</t>
   </si>
 </sst>
 </file>
@@ -540,19 +537,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="29" width="9.6640625" style="7" customWidth="1"/>
-    <col min="30" max="32" width="11" style="7"/>
+    <col min="1" max="28" width="9.6640625" style="7" customWidth="1"/>
+    <col min="29" max="31" width="11" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -575,11 +572,9 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -602,9 +597,8 @@
       <c r="AC1"/>
       <c r="AD1"/>
       <c r="AE1"/>
-      <c r="AF1"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -628,11 +622,9 @@
         <v>5</v>
       </c>
       <c r="H2" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="I2" s="13">
         <v>2</v>
       </c>
+      <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -655,9 +647,8 @@
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
-      <c r="AF2"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -689,9 +680,8 @@
       <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3"/>
-      <c r="AF3"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -723,9 +713,8 @@
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
-      <c r="AF4"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -757,9 +746,8 @@
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
-      <c r="AF5"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -791,9 +779,9 @@
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
-      <c r="AF6"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -817,9 +805,8 @@
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7"/>
-      <c r="AF7"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -851,9 +838,9 @@
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
-      <c r="AF8"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -877,9 +864,9 @@
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
-      <c r="AF9"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
@@ -894,9 +881,9 @@
       <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10"/>
-      <c r="AF10"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
@@ -911,9 +898,9 @@
       <c r="AC11"/>
       <c r="AD11"/>
       <c r="AE11"/>
-      <c r="AF11"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
@@ -928,7 +915,6 @@
       <c r="AC12"/>
       <c r="AD12"/>
       <c r="AE12"/>
-      <c r="AF12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
